--- a/LarpCreater/LARP Framework/Assets/Excel/Skill.xlsx
+++ b/LarpCreater/LARP Framework/Assets/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LARP_System\LarpCreater\LARP Framework\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F44BA52-A04F-4F30-ACEC-E8FB54FD40B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AA9E2E-EE36-4365-9A44-4F7FDFA36C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="5540" windowWidth="30670" windowHeight="15460" xr2:uid="{BD68BDBC-1884-4FFC-85E7-D31DC8E6B5B9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="109">
   <si>
     <t>招式名字</t>
     <phoneticPr fontId="1"/>
@@ -457,6 +457,10 @@
   </si>
   <si>
     <t>無限</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>系列最大點數</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -875,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D31EB2-6EDA-46D2-9AC9-0993C18F3522}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -887,7 +891,7 @@
     <col min="5" max="5" width="59.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -921,8 +925,11 @@
       <c r="K1" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -941,8 +948,11 @@
       <c r="K2" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -961,8 +971,11 @@
       <c r="K3" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -981,8 +994,11 @@
       <c r="K4" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1001,8 +1017,11 @@
       <c r="K5" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1021,8 +1040,11 @@
       <c r="K6" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1044,8 +1066,11 @@
       <c r="K7" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1067,8 +1092,11 @@
       <c r="K8" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1087,8 +1115,11 @@
       <c r="K9" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1110,8 +1141,11 @@
       <c r="K10" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1130,8 +1164,11 @@
       <c r="K11" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1187,11 @@
       <c r="K12" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -1170,8 +1210,11 @@
       <c r="K13" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1190,8 +1233,11 @@
       <c r="K14" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1210,8 +1256,11 @@
       <c r="K15" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1233,8 +1282,11 @@
       <c r="K16" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -1256,8 +1308,11 @@
       <c r="K17" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -1276,8 +1331,11 @@
       <c r="K18" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -1302,8 +1360,11 @@
       <c r="K19" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -1328,8 +1389,11 @@
       <c r="K20" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -1354,8 +1418,11 @@
       <c r="K21" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -1374,8 +1441,11 @@
       <c r="K22" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -1394,8 +1464,11 @@
       <c r="K23" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
@@ -1417,8 +1490,11 @@
       <c r="K24" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -1440,8 +1516,11 @@
       <c r="K25" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
@@ -1460,8 +1539,11 @@
       <c r="K26" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
@@ -1480,8 +1562,11 @@
       <c r="K27" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -1500,8 +1585,11 @@
       <c r="K28" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
@@ -1520,8 +1608,11 @@
       <c r="K29" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
@@ -1540,8 +1631,11 @@
       <c r="K30" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
@@ -1560,12 +1654,16 @@
       <c r="K31" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="E32" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LarpCreater/LARP Framework/Assets/Excel/Skill.xlsx
+++ b/LarpCreater/LARP Framework/Assets/Excel/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LARP_System\LarpCreater\LARP Framework\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AA9E2E-EE36-4365-9A44-4F7FDFA36C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E1A328-A4B6-4E6A-B197-766944B2BF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="5540" windowWidth="30670" windowHeight="15460" xr2:uid="{BD68BDBC-1884-4FFC-85E7-D31DC8E6B5B9}"/>
+    <workbookView xWindow="930" yWindow="2700" windowWidth="30670" windowHeight="15460" xr2:uid="{BD68BDBC-1884-4FFC-85E7-D31DC8E6B5B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
   <si>
     <t>招式名字</t>
     <phoneticPr fontId="1"/>
@@ -461,6 +461,114 @@
   </si>
   <si>
     <t>系列最大點數</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貿易</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貿易.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TBD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>委託任務</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>委託任務.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>懸賞任務</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>懸賞任務</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.png</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拉普牌</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>拉普牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.png</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>療育</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>療育</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.png</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拾荒者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>拾荒者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.png</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -879,14 +987,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D31EB2-6EDA-46D2-9AC9-0993C18F3522}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="69.25" customWidth="1"/>
     <col min="5" max="5" width="59.4140625" customWidth="1"/>
   </cols>
@@ -1355,7 +1464,7 @@
         <v>101</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>98</v>
@@ -1384,7 +1493,7 @@
         <v>102</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>98</v>
@@ -1659,7 +1768,127 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="E32" s="4"/>
+      <c r="A32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/LarpCreater/LARP Framework/Assets/Excel/Skill.xlsx
+++ b/LarpCreater/LARP Framework/Assets/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LARP_System\LarpCreater\LARP Framework\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E1A328-A4B6-4E6A-B197-766944B2BF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07F53ED-2B43-4A10-BB1A-2C957B15915A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="2700" windowWidth="30670" windowHeight="15460" xr2:uid="{BD68BDBC-1884-4FFC-85E7-D31DC8E6B5B9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="127">
   <si>
     <t>招式名字</t>
     <phoneticPr fontId="1"/>
@@ -571,12 +571,84 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +705,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -656,7 +736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,6 +751,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,7 +1073,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1169,8 +1252,8 @@
       <c r="E7" t="s">
         <v>91</v>
       </c>
-      <c r="G7">
-        <v>1</v>
+      <c r="G7" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>98</v>
@@ -1463,8 +1546,8 @@
       <c r="F19" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G19">
-        <v>3</v>
+      <c r="G19" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>98</v>
@@ -1492,8 +1575,8 @@
       <c r="F20" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G20">
-        <v>2</v>
+      <c r="G20" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>98</v>

--- a/LarpCreater/LARP Framework/Assets/Excel/Skill.xlsx
+++ b/LarpCreater/LARP Framework/Assets/Excel/Skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LARP_System\LarpCreater\LARP Framework\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07F53ED-2B43-4A10-BB1A-2C957B15915A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DCFE31-9C09-4544-B607-AFF870F48862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="2700" windowWidth="30670" windowHeight="15460" xr2:uid="{BD68BDBC-1884-4FFC-85E7-D31DC8E6B5B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{BD68BDBC-1884-4FFC-85E7-D31DC8E6B5B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="177">
   <si>
     <t>招式名字</t>
     <phoneticPr fontId="1"/>
@@ -125,9 +125,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>尾刀回血</t>
-  </si>
-  <si>
     <t>背襲回血</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
     <t>魔力護盾</t>
   </si>
   <si>
-    <t>魔爆術</t>
-  </si>
-  <si>
     <t>治療術.png</t>
   </si>
   <si>
@@ -302,64 +296,10 @@
     <t>魔爆術.png</t>
   </si>
   <si>
-    <t>以魔法/物理/奏樂對他人治療，須於1步內距離且被治療者成傷姿，引導5秒回1</t>
-  </si>
-  <si>
     <t>尾刀可回1點生命</t>
   </si>
   <si>
-    <t>擊中目標背部可回復1點生命</t>
-  </si>
-  <si>
     <t>犧牲1點生命上限，以1點生命復活一名友方</t>
-  </si>
-  <si>
-    <t>可裝備長度超過140CM的武器/80CM以上的盾牌</t>
-  </si>
-  <si>
-    <t>生命上限+1</t>
-  </si>
-  <si>
-    <t>可攜帶3把投持武器</t>
-  </si>
-  <si>
-    <t>喊招(至少3字元)蓄力3秒，帶喝聲揮擊，造成3點元素傷害。冷卻10次普攻。</t>
-  </si>
-  <si>
-    <t>解除箭矢攜帶數量上限</t>
-  </si>
-  <si>
-    <t>可佩帶1支點燃的箭矢，造成3點元素傷害。</t>
-  </si>
-  <si>
-    <t>可一次射出多支箭矢</t>
-  </si>
-  <si>
-    <t>可使用1次恐懼術，使周圍敵方逃跑，回重生點30秒可補充次數。</t>
-  </si>
-  <si>
-    <t>可使用2次冰凍術，定身附近目標，直到目標受傷為止。回重生點30秒可補充次數。</t>
-  </si>
-  <si>
-    <t>以彩帶排成直線，形成為無法通過的障壁，排成圓形，區域內法球與治療只需1秒2字元</t>
-  </si>
-  <si>
-    <t>解鎖中型盾牌、雙手武器、硬甲，但法球只能帶3顆。(需B階級以上)</t>
-  </si>
-  <si>
-    <t>法球攜量2倍</t>
-  </si>
-  <si>
-    <t>以1黃色彩帶綁在友身上，提高1點生命上限(需要黃色緞帶)</t>
-  </si>
-  <si>
-    <t>可攜帶9把投持武器</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>可佩帶3支點燃的箭矢，造成3點元素傷害。</t>
   </si>
   <si>
     <t>以3黃色彩帶綁在友身上，提高1點生命上限(需要黃色緞帶)</t>
@@ -469,10 +409,6 @@
   </si>
   <si>
     <t>貿易.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TBD</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -641,6 +577,313 @@
       </rPr>
       <t>2</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解銷大型武裝</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解鎖140cm以上大型武器
+解鎖80cm以上大型盾牌</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可攜3支投持武器。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解鎖投持武器</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提高投持數量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可攜9支投持武器。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提高生命上限</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生命上限提高1點。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生命上限提高2點。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生命上限提高3點。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化友方生命</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攜帶用1條祝福法帶，為友方施加+1HP效果。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強力近戰技能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蓄力2秒後造成3點進戰技能傷害。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>復活友方玩家</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>治療友方單位</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>每5秒治療1點生命，最多9次，無法治療自己。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自我恢復</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>自我恢復</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.png</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W/A/M/V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>對自己治療</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>每10秒治療自己1點生命，無法治療他人。
+最多9次。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>擊中背部回血</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>擊中背部回1HP，同個目標只能1次。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提高箭矢上限</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取消箭矢攜帶數量限制</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強力遠程技能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可攜帶1支可造成3法傷的火焰箭矢</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可攜帶3支可造成3法傷的火焰箭矢</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解鎖多重箭</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可一次射出多隻箭矢</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使目標定身</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+定身1個目標10秒或受到傷害。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>學會佈屬法陣</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可使用法帶擺放法陣
+排成直線作為壁壘，人與敵方遠程無法通過。
+排成圓形可加速施法，治療與法球只需1秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化近戰能力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解鎖硬甲、中型武器、中型盾牌，
+但法球減少為3顆。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+提高法力上限</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>法球攜帶量加倍</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使目標逃跑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使1個目標逃回復活點。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>額外技能點數</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獲得額外2點天賦技能點數</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+範圍擊退傷害</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範圍2點傷害並擊退5步</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範圍震暈傷害</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範圍1點傷害並昏迷5秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>治療複數單位</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>群體治療自己以外的友方2點生命</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強力治療技能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回滿1個目標生命</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>降低承受傷害</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+承受任何類型攻擊傷害降為1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>群體復活</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>喚醒所以死亡的友方以1點生命復活</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雙持雙手武器</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可單手持雙手武器，且蓄力打擊移除冷卻</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販售強化道具</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+以金幣交易物品，販售強化道具</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標記懸賞目標</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+標記懸賞目標，帶回懸賞標記給予報酬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放置任務道具</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放置任務道具，帶回任務道具給予報酬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>給予中立治療</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>收集投射道具</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>收集投射道具，供玩家取回或購回</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>來場拉普牌</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賭注金幣挑戰拉普牌</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斬殺</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>擊退波</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -736,7 +979,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,6 +998,12 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,16 +1319,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D31EB2-6EDA-46D2-9AC9-0993C18F3522}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="69.25" customWidth="1"/>
+    <col min="3" max="3" width="60.25" customWidth="1"/>
+    <col min="4" max="4" width="114" customWidth="1"/>
     <col min="5" max="5" width="59.4140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1097,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1115,10 +1365,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1126,19 +1376,19 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -1146,22 +1396,22 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -1169,22 +1419,22 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1192,45 +1442,45 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="36">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1238,25 +1488,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -1264,25 +1514,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L8">
         <v>2</v>
@@ -1290,22 +1540,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1313,25 +1563,25 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1339,22 +1589,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -1362,22 +1612,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1385,120 +1635,120 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="36">
+      <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="54">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="36">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>83</v>
+        <v>142</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" ht="36">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>84</v>
+        <v>52</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -1506,22 +1756,22 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -1529,28 +1779,28 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L19">
         <v>3</v>
@@ -1558,28 +1808,28 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L20">
         <v>3</v>
@@ -1587,28 +1837,28 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="J21">
         <v>9</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -1616,22 +1866,22 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -1639,22 +1889,22 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1662,25 +1912,25 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -1688,25 +1938,25 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -1714,22 +1964,22 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -1737,22 +1987,22 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -1760,22 +2010,22 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -1783,91 +2033,91 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="36">
+      <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="36">
+      <c r="A31" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="C31" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="29">
+      <c r="A32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -1875,39 +2125,39 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" ht="29">
       <c r="A34" s="3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>111</v>
+        <v>166</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -1915,19 +2165,19 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="3" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -1935,19 +2185,19 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="3" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -1955,21 +2205,44 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="3" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="29">
+      <c r="A38" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L37">
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K38" t="s">
+        <v>126</v>
+      </c>
+      <c r="L38">
         <v>1</v>
       </c>
     </row>

--- a/LarpCreater/LARP Framework/Assets/Excel/Skill.xlsx
+++ b/LarpCreater/LARP Framework/Assets/Excel/Skill.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LARP system\LarpCreater\LARP Framework\Assets\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B094E6-BA4A-4AD6-B0D2-4A6078CFF0FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,18 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="170">
-  <si>
-    <t xml:space="preserve">招式名字</t>
-  </si>
-  <si>
-    <t xml:space="preserve">招式圖片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">功能說明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">詳細功能說明</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="170">
+  <si>
+    <t>招式名字</t>
+  </si>
+  <si>
+    <t>招式圖片</t>
+  </si>
+  <si>
+    <t>功能說明</t>
+  </si>
+  <si>
+    <t>詳細功能說明</t>
   </si>
   <si>
     <r>
@@ -42,7 +47,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">可用職業</t>
+      <t>可用職業</t>
     </r>
     <r>
       <rPr>
@@ -52,11 +57,11 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">(W/A/M/V)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">前置技</t>
+      <t>(W/A/M/V)</t>
+    </r>
+  </si>
+  <si>
+    <t>前置技</t>
   </si>
   <si>
     <r>
@@ -67,7 +72,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">增益</t>
+      <t>增益</t>
     </r>
     <r>
       <rPr>
@@ -89,7 +94,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">增益</t>
+      <t>增益</t>
     </r>
     <r>
       <rPr>
@@ -111,7 +116,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">增益</t>
+      <t>增益</t>
     </r>
     <r>
       <rPr>
@@ -133,7 +138,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">增益</t>
+      <t>增益</t>
     </r>
     <r>
       <rPr>
@@ -155,7 +160,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">可用等級</t>
+      <t>可用等級</t>
     </r>
     <r>
       <rPr>
@@ -169,101 +174,101 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">系列最大點數</t>
-  </si>
-  <si>
-    <t xml:space="preserve">治療術</t>
-  </si>
-  <si>
-    <t xml:space="preserve">治療術.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">治療友方單位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每5秒治療1點生命，最多9次，無法治療自己。
+    <t>系列最大點數</t>
+  </si>
+  <si>
+    <t>治療術</t>
+  </si>
+  <si>
+    <t>治療術.png</t>
+  </si>
+  <si>
+    <t>治療友方單位</t>
+  </si>
+  <si>
+    <t>每5秒治療1點生命，最多9次，無法治療自己。
 施放方式:
 於受傷目標1步距離內，傷者須呈現蹲姿或傷姿，以合理演出道具治療目標。
 引導每5秒回復1點生命，過程中雙方之一移動或承受傷害就會中斷治療。
 使用完9次後，需充能沙漏1次與消耗1枚金幣才能重制次數。</t>
   </si>
   <si>
-    <t xml:space="preserve">W/A/M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斬殺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">尾刀回血.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">尾刀可回1點生命</t>
-  </si>
-  <si>
-    <t xml:space="preserve">處決目標可回復1點生命。
+    <t>W/A/M</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>斬殺</t>
+  </si>
+  <si>
+    <t>尾刀回血.png</t>
+  </si>
+  <si>
+    <t>尾刀可回1點生命</t>
+  </si>
+  <si>
+    <t>處決目標可回復1點生命。
 施放方式:
 對已經被擊敗的目標演出處決，可回復1點生命。</t>
   </si>
   <si>
-    <t xml:space="preserve">背襲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">背襲回血.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">擊中背部回血</t>
-  </si>
-  <si>
-    <t xml:space="preserve">擊中背部回1HP，每個目標只能1次。
+    <t>背襲</t>
+  </si>
+  <si>
+    <t>背襲回血.png</t>
+  </si>
+  <si>
+    <t>擊中背部回血</t>
+  </si>
+  <si>
+    <t>擊中背部回1HP，每個目標只能1次。
 施放方式:
 被動
 耗費1金幣才重制目標次數。</t>
   </si>
   <si>
-    <t xml:space="preserve">救贖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">救贖.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">復活友方玩家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">犧牲1點生命上限，以1點生命復活一名友方
+    <t>救贖</t>
+  </si>
+  <si>
+    <t>救贖.png</t>
+  </si>
+  <si>
+    <t>復活友方玩家</t>
+  </si>
+  <si>
+    <t>犧牲1點生命上限，以1點生命復活一名友方
 施放方式:
 於已死亡的友方目標1步距離內，將1點生命上限轉給目標，使其已1點生命復活。
 自己失去的生命上限無法以治療補回，但重新復活可重置。</t>
   </si>
   <si>
-    <t xml:space="preserve">優勢武裝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">優勢武裝.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解銷大型武裝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解鎖140cm以上大型武器
+    <t>優勢武裝</t>
+  </si>
+  <si>
+    <t>優勢武裝.png</t>
+  </si>
+  <si>
+    <t>解銷大型武裝</t>
+  </si>
+  <si>
+    <t>解鎖140cm以上大型武器
 解鎖80cm以上大型盾牌</t>
   </si>
   <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">耐力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">耐力.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提高生命上限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生命上限提高1點。</t>
+    <t>W</t>
+  </si>
+  <si>
+    <t>耐力</t>
+  </si>
+  <si>
+    <t>耐力.png</t>
+  </si>
+  <si>
+    <t>提高生命上限</t>
+  </si>
+  <si>
+    <t>生命上限提高1點。</t>
   </si>
   <si>
     <r>
@@ -274,7 +279,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">+</t>
+      <t>+</t>
     </r>
     <r>
       <rPr>
@@ -284,17 +289,17 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">投持武器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">投持武器.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解鎖投持武器</t>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>投持武器</t>
+  </si>
+  <si>
+    <t>投持武器.png</t>
+  </si>
+  <si>
+    <t>解鎖投持武器</t>
   </si>
   <si>
     <r>
@@ -305,7 +310,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">可攜3支投持武器/或</t>
+      <t>可攜3支投持武器/或</t>
     </r>
     <r>
       <rPr>
@@ -315,7 +320,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">NERF MAGA彈</t>
+      <t>NERF MAGA彈</t>
     </r>
     <r>
       <rPr>
@@ -325,7 +330,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">/或</t>
+      <t>/或</t>
     </r>
     <r>
       <rPr>
@@ -335,7 +340,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">NERF</t>
+      <t>NERF</t>
     </r>
     <r>
       <rPr>
@@ -345,25 +350,25 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">弩矢
+      <t>弩矢
 施放方式:
 將中程武器彈射出，造成1點遠程傷害。</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">W/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蓄力打擊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蓄力打擊.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強力近戰技能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蓄力2秒後造成3點進戰技能傷害。
+    <t>W/A</t>
+  </si>
+  <si>
+    <t>蓄力打擊</t>
+  </si>
+  <si>
+    <t>蓄力打擊.png</t>
+  </si>
+  <si>
+    <t>強力近戰技能</t>
+  </si>
+  <si>
+    <t>蓄力2秒後造成3點進戰技能傷害。
 施放方式:
 先喊放招提示吸引目標注意(例如:看招! 接招! 吃我這招...等)
 將武器舉起蓄力並喊出招式名稱(可自己取名)，至少2秒2音節。
@@ -372,31 +377,31 @@
 冷卻:1次沙漏</t>
   </si>
   <si>
-    <t xml:space="preserve">大型箭袋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大型箭袋.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提高箭矢上限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">取消箭矢攜帶數量限制</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">無限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">火箭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">火焰箭.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強力遠程技能</t>
+    <t>大型箭袋</t>
+  </si>
+  <si>
+    <t>大型箭袋.png</t>
+  </si>
+  <si>
+    <t>提高箭矢上限</t>
+  </si>
+  <si>
+    <t>取消箭矢攜帶數量限制</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>無限</t>
+  </si>
+  <si>
+    <t>火箭</t>
+  </si>
+  <si>
+    <t>火焰箭.png</t>
+  </si>
+  <si>
+    <t>強力遠程技能</t>
   </si>
   <si>
     <t xml:space="preserve">可攜帶1支可造成3法傷的火焰箭矢
@@ -408,31 +413,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">多重箭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">多重箭.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解鎖多重箭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可一次射出多隻箭矢
+    <t>多重箭</t>
+  </si>
+  <si>
+    <t>多重箭.png</t>
+  </si>
+  <si>
+    <t>解鎖多重箭</t>
+  </si>
+  <si>
+    <t>可一次射出多隻箭矢
 施放方式:
 架好2~3支箭矢一次射出(建議橫拿弓)
 額外箭矢會增加重量，須將弓拉的更滿或調高角度，建議先練習熟悉。</t>
   </si>
   <si>
-    <t xml:space="preserve">恐懼術</t>
-  </si>
-  <si>
-    <t xml:space="preserve">恐懼術.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">使目標逃跑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">使1個目標逃回復活點。
+    <t>恐懼術</t>
+  </si>
+  <si>
+    <t>恐懼術.png</t>
+  </si>
+  <si>
+    <t>使目標逃跑</t>
+  </si>
+  <si>
+    <t>使1個目標逃回復活點。
 施放方式:
 先喊放招提示吸引目標注意(例如:看招! 接招! 嘗嘗這招...等)
 於三步範圍內，讀出恐懼術，手長朝目標的臉張開，並口頭提示目標逃跑回家。
@@ -440,16 +445,16 @@
 冷卻:充能沙漏1次</t>
   </si>
   <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">冰凍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">冰凍術.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">使目標定身</t>
+    <t>M</t>
+  </si>
+  <si>
+    <t>冰凍</t>
+  </si>
+  <si>
+    <t>冰凍術.png</t>
+  </si>
+  <si>
+    <t>使目標定身</t>
   </si>
   <si>
     <r>
@@ -472,7 +477,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">施放方式:
+      <t>施放方式:
 先喊放招提示吸引目標注意(例如:看招! 接招! 吃我這招...等)
 於三步範圍內，讀出帶有冰系關鍵字的技能名稱。
 手指目標的腳喊"定身"，
@@ -481,16 +486,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">法陣部署</t>
-  </si>
-  <si>
-    <t xml:space="preserve">法陣部署.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">學會佈屬法陣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可使用法帶擺放法陣
+    <t>法陣部署</t>
+  </si>
+  <si>
+    <t>法陣部署.png</t>
+  </si>
+  <si>
+    <t>學會佈屬法陣</t>
+  </si>
+  <si>
+    <t>可使用法帶擺放法陣
 排成直線作為壁壘，人與敵方遠程無法通過。
 排成圓形可加速施法，治療與法球只需1秒
 施放方式:
@@ -500,62 +505,62 @@
 法陣可回收重新布局。</t>
   </si>
   <si>
-    <t xml:space="preserve">戰鬥法師</t>
-  </si>
-  <si>
-    <t xml:space="preserve">戰鬥法師.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強化近戰能力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解鎖硬甲、中型武器、中型盾牌，
+    <t>戰鬥法師</t>
+  </si>
+  <si>
+    <t>戰鬥法師.png</t>
+  </si>
+  <si>
+    <t>強化近戰能力</t>
+  </si>
+  <si>
+    <t>解鎖硬甲、中型武器、中型盾牌，
 但法球減少為3顆。</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魔力充沛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魔力充沛.png</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>魔力充沛</t>
+  </si>
+  <si>
+    <t>魔力充沛.png</t>
   </si>
   <si>
     <t xml:space="preserve">
 提高法力上限</t>
   </si>
   <si>
-    <t xml:space="preserve">法球攜帶量加倍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">祝福</t>
-  </si>
-  <si>
-    <t xml:space="preserve">祝福.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強化友方生命</t>
-  </si>
-  <si>
-    <t xml:space="preserve">攜帶用1條祝福法帶，為友方施加+1HP效果。
+    <t>法球攜帶量加倍</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>祝福</t>
+  </si>
+  <si>
+    <t>祝福.png</t>
+  </si>
+  <si>
+    <t>強化友方生命</t>
+  </si>
+  <si>
+    <t>攜帶用1條祝福法帶，為友方施加+1HP效果。
 施放方式:
 將祝福法帶綁在目標身上，可回收或更換目標。</t>
   </si>
   <si>
-    <t xml:space="preserve">大師耐力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大師耐力.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生命上限提高3點。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強化耐力</t>
+    <t>大師耐力</t>
+  </si>
+  <si>
+    <t>大師耐力.png</t>
+  </si>
+  <si>
+    <t>生命上限提高3點。</t>
+  </si>
+  <si>
+    <t>強化耐力</t>
   </si>
   <si>
     <r>
@@ -566,7 +571,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">+</t>
+      <t>+</t>
     </r>
     <r>
       <rPr>
@@ -576,14 +581,14 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">強化耐力.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生命上限提高2點。</t>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>強化耐力.png</t>
+  </si>
+  <si>
+    <t>生命上限提高2點。</t>
   </si>
   <si>
     <r>
@@ -594,7 +599,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">+</t>
+      <t>+</t>
     </r>
     <r>
       <rPr>
@@ -604,59 +609,59 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">投持大師</t>
-  </si>
-  <si>
-    <t xml:space="preserve">投持大師.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提高投持數量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可攜6支投持武器/或NERF MAGA彈/或NERF弩矢
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>投持大師</t>
+  </si>
+  <si>
+    <t>投持大師.png</t>
+  </si>
+  <si>
+    <t>提高投持數量</t>
+  </si>
+  <si>
+    <t>可攜6支投持武器/或NERF MAGA彈/或NERF弩矢
 施放方式:
 將中程武器彈射出，造成1點遠程傷害。</t>
   </si>
   <si>
-    <t xml:space="preserve">振奮號召</t>
-  </si>
-  <si>
-    <t xml:space="preserve">振奮號召.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">群體復活</t>
-  </si>
-  <si>
-    <t xml:space="preserve">喚醒所以死亡的友方以1點生命復活，最多6人
+    <t>振奮號召</t>
+  </si>
+  <si>
+    <t>振奮號召.png</t>
+  </si>
+  <si>
+    <t>群體復活</t>
+  </si>
+  <si>
+    <t>喚醒所以死亡的友方以1點生命復活，最多6人
 施放方式:
 在墓地區低舉武器號招敗亡玩家武器相觸，累積最多6人呼出代表重生的口號。
 將復活有觸擊的死者，但剛復活的目標只有1點生命，且可以接受治療。
 只能使用一次。</t>
   </si>
   <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泰坦之握</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泰坦之握.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雙持雙手武器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可單手持雙手武器，且蓄力打擊移除冷卻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">火箭大師</t>
-  </si>
-  <si>
-    <t xml:space="preserve">火箭大師.png</t>
+    <t>S</t>
+  </si>
+  <si>
+    <t>泰坦之握</t>
+  </si>
+  <si>
+    <t>泰坦之握.png</t>
+  </si>
+  <si>
+    <t>雙持雙手武器</t>
+  </si>
+  <si>
+    <t>可單手持雙手武器，且蓄力打擊移除冷卻</t>
+  </si>
+  <si>
+    <t>火箭大師</t>
+  </si>
+  <si>
+    <t>火箭大師.png</t>
   </si>
   <si>
     <r>
@@ -678,7 +683,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">施放方式:
+      <t>施放方式:
 以代表火焰的紅色布套(建議加裝鈴鐺)安裝於箭矢上。
 射擊時需喊出與火有關的射擊技能名稱(例如:火焰箭!)
 擊中目標造成3點技能傷害，無視格檔。
@@ -686,10 +691,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">祝福大師</t>
-  </si>
-  <si>
-    <t xml:space="preserve">祝福大師.png</t>
+    <t>祝福大師</t>
+  </si>
+  <si>
+    <t>祝福大師.png</t>
   </si>
   <si>
     <r>
@@ -717,16 +722,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">群體治療</t>
-  </si>
-  <si>
-    <t xml:space="preserve">群體治療.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">治療複數單位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">群體治療自己以外的友方2點生命，最多六人。
+    <t>群體治療</t>
+  </si>
+  <si>
+    <t>群體治療.png</t>
+  </si>
+  <si>
+    <t>治療複數單位</t>
+  </si>
+  <si>
+    <t>群體治療自己以外的友方2點生命，最多六人。
 施放方式:
 舉起代表治療的道具或武器，呼喚友方來觸碰。
 如果集結人數超過6人，喊滿!
@@ -736,44 +741,44 @@
 冷卻:充能沙漏1次與消耗1枚金幣。</t>
   </si>
   <si>
-    <t xml:space="preserve">老練戰將</t>
-  </si>
-  <si>
-    <t xml:space="preserve">老練戰將.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">額外技能點數</t>
-  </si>
-  <si>
-    <t xml:space="preserve">獲得額外2點天賦技能點數</t>
-  </si>
-  <si>
-    <t xml:space="preserve">聖療術</t>
-  </si>
-  <si>
-    <t xml:space="preserve">聖療術.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強力治療技能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">回滿1個目標生命
+    <t>老練戰將</t>
+  </si>
+  <si>
+    <t>老練戰將.png</t>
+  </si>
+  <si>
+    <t>額外技能點數</t>
+  </si>
+  <si>
+    <t>獲得額外2點天賦技能點數</t>
+  </si>
+  <si>
+    <t>聖療術</t>
+  </si>
+  <si>
+    <t>聖療術.png</t>
+  </si>
+  <si>
+    <t>強力治療技能</t>
+  </si>
+  <si>
+    <t>回滿1個目標生命
 施放方式:
 於一步內對有方演出治療動作，喊出強效治療相關名稱，將立即回滿生命。
 順發，可對自己使用。
 冷卻:充能沙漏1次與消耗1枚金幣。</t>
   </si>
   <si>
-    <t xml:space="preserve">震地擊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">震地擊.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">範圍震暈傷害</t>
-  </si>
-  <si>
-    <t xml:space="preserve">範圍1點傷害並昏迷5秒
+    <t>震地擊</t>
+  </si>
+  <si>
+    <t>震地擊.png</t>
+  </si>
+  <si>
+    <t>範圍震暈傷害</t>
+  </si>
+  <si>
+    <t>範圍1點傷害並昏迷5秒
 施放方式:
 先喊放招提示吸引目標注意(例如:看招! 接招! 吃我這招...等)
 喊出震地擊或類似名稱，演出重擊地面的動作喊"碰"。
@@ -783,30 +788,30 @@
 冷卻:充能沙漏1次與消耗1枚金幣。</t>
   </si>
   <si>
-    <t xml:space="preserve">魔力護盾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魔力護盾.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">降低承受傷害</t>
+    <t>魔力護盾</t>
+  </si>
+  <si>
+    <t>魔力護盾.png</t>
+  </si>
+  <si>
+    <t>降低承受傷害</t>
   </si>
   <si>
     <t xml:space="preserve">
 承受任何類型攻擊傷害降為1</t>
   </si>
   <si>
-    <t xml:space="preserve">擊退波</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魔爆術.png</t>
+    <t>擊退波</t>
+  </si>
+  <si>
+    <t>魔爆術.png</t>
   </si>
   <si>
     <t xml:space="preserve">
 範圍擊退傷害</t>
   </si>
   <si>
-    <t xml:space="preserve">範圍2點傷害並擊退5步
+    <t>範圍2點傷害並擊退5步
 施放方式:
 先喊放招提示吸引目標注意(例如:看招! 接招! 吃我這招...等)
 雙手環於身前，喊出擊退或類似關鍵字技能名稱，將肢體大字展開喊"碰"。
@@ -815,13 +820,13 @@
 冷卻:充能沙漏1次與消耗1枚金幣。</t>
   </si>
   <si>
-    <t xml:space="preserve">貿易</t>
-  </si>
-  <si>
-    <t xml:space="preserve">貿易.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">販售強化道具</t>
+    <t>貿易</t>
+  </si>
+  <si>
+    <t>貿易.png</t>
+  </si>
+  <si>
+    <t>販售強化道具</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -844,25 +849,25 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">委託任務</t>
-  </si>
-  <si>
-    <t xml:space="preserve">委託任務.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">放置任務道具</t>
-  </si>
-  <si>
-    <t xml:space="preserve">放置任務道具，帶回任務道具給予報酬
+    <t>V</t>
+  </si>
+  <si>
+    <t>委託任務</t>
+  </si>
+  <si>
+    <t>委託任務.png</t>
+  </si>
+  <si>
+    <t>放置任務道具</t>
+  </si>
+  <si>
+    <t>放置任務道具，帶回任務道具給予報酬
 將任務道具事先擺放於場地上，玩家需先向你接任務後去收集指定道具。
 蒐集對的東西後給予報酬或有利條件。
 蒐集錯的東西將可拒收或告訴他撿的東西有毒，每撿錯一個-1生命。</t>
   </si>
   <si>
-    <t xml:space="preserve">懸賞任務</t>
+    <t>懸賞任務</t>
   </si>
   <si>
     <r>
@@ -873,7 +878,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">懸賞任務</t>
+      <t>懸賞任務</t>
     </r>
     <r>
       <rPr>
@@ -883,11 +888,11 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">標記懸賞目標</t>
+      <t>.png</t>
+    </r>
+  </si>
+  <si>
+    <t>標記懸賞目標</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -897,7 +902,7 @@
 行情價6金</t>
   </si>
   <si>
-    <t xml:space="preserve">拉普牌</t>
+    <t>拉普牌</t>
   </si>
   <si>
     <r>
@@ -908,7 +913,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">拉普牌</t>
+      <t>拉普牌</t>
     </r>
     <r>
       <rPr>
@@ -918,11 +923,11 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">來場拉普牌</t>
+      <t>.png</t>
+    </r>
+  </si>
+  <si>
+    <t>來場拉普牌</t>
   </si>
   <si>
     <t xml:space="preserve">賭注金幣挑戰拉普牌
@@ -933,7 +938,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">療育</t>
+    <t>療育</t>
   </si>
   <si>
     <r>
@@ -944,7 +949,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">療育</t>
+      <t>療育</t>
     </r>
     <r>
       <rPr>
@@ -954,20 +959,20 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">給予中立治療</t>
-  </si>
-  <si>
-    <t xml:space="preserve">給予中立治療每5秒回復1點生命。
+      <t>.png</t>
+    </r>
+  </si>
+  <si>
+    <t>給予中立治療</t>
+  </si>
+  <si>
+    <t>給予中立治療每5秒回復1點生命。
 對付費或完成任務的玩家，
 以物理、魔法、音樂、飲食等合理演出，給予治療
 每5秒回復1點生命，可以視心情減弱效果。</t>
   </si>
   <si>
-    <t xml:space="preserve">拾荒者</t>
+    <t>拾荒者</t>
   </si>
   <si>
     <r>
@@ -978,7 +983,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">拾荒者</t>
+      <t>拾荒者</t>
     </r>
     <r>
       <rPr>
@@ -988,20 +993,20 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">收集投射道具</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收集投射道具，供玩家取回或購回
+      <t>.png</t>
+    </r>
+  </si>
+  <si>
+    <t>收集投射道具</t>
+  </si>
+  <si>
+    <t>收集投射道具，供玩家取回或購回
 蒐集場上掉落的箭矢、投持武器、法球、或其他掉落物。
 可供玩家領回或購回。
 投射道具夠回行情5個1金</t>
   </si>
   <si>
-    <t xml:space="preserve">自我恢復</t>
+    <t>自我恢復</t>
   </si>
   <si>
     <r>
@@ -1012,7 +1017,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">自我恢復</t>
+      <t>自我恢復</t>
     </r>
     <r>
       <rPr>
@@ -1022,14 +1027,14 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">對自己治療</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每10秒治療自己1點生命，無法治療他人。
+      <t>.png</t>
+    </r>
+  </si>
+  <si>
+    <t>對自己治療</t>
+  </si>
+  <si>
+    <t>每10秒治療自己1點生命，無法治療他人。
 最多9次。
 施放方式:
 以合理道具為自己治療，引導每10秒回復1點生命。
@@ -1040,36 +1045,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1123,7 +1106,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1131,122 +1114,387 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="59.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.61"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="60.25" customWidth="1"/>
+    <col min="4" max="4" width="54.375" customWidth="1"/>
+    <col min="5" max="5" width="59.375" customWidth="1"/>
+    <col min="6" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1268,7 +1516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" ht="150">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1287,11 +1535,11 @@
       <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="75">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -1310,11 +1558,11 @@
       <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="93.75">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1327,17 +1575,17 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="112.5">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -1350,17 +1598,17 @@
       <c r="D5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="37.5">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1379,11 +1627,11 @@
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1396,7 +1644,7 @@
       <c r="D7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -1405,11 +1653,11 @@
       <c r="K7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" ht="75">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
@@ -1425,17 +1673,17 @@
       <c r="E8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>3</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="91.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:12" ht="168.75">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1454,11 +1702,11 @@
       <c r="K9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
@@ -1474,17 +1722,17 @@
       <c r="E10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="91.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="150">
       <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
@@ -1503,11 +1751,11 @@
       <c r="K11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:12" ht="112.5">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -1526,11 +1774,11 @@
       <c r="K12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="150">
       <c r="A13" s="4" t="s">
         <v>63</v>
       </c>
@@ -1549,11 +1797,11 @@
       <c r="K13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="103.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="153">
       <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
@@ -1572,11 +1820,11 @@
       <c r="K14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="114.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="187.5">
       <c r="A15" s="4" t="s">
         <v>72</v>
       </c>
@@ -1595,11 +1843,11 @@
       <c r="K15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="37.5">
       <c r="A16" s="4" t="s">
         <v>76</v>
       </c>
@@ -1615,17 +1863,17 @@
       <c r="E16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16">
         <v>3</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="37.5">
       <c r="A17" s="4" t="s">
         <v>81</v>
       </c>
@@ -1647,11 +1895,11 @@
       <c r="K17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="75">
       <c r="A18" s="4" t="s">
         <v>86</v>
       </c>
@@ -1670,11 +1918,11 @@
       <c r="K18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
         <v>90</v>
       </c>
@@ -1699,11 +1947,11 @@
       <c r="K19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:12">
       <c r="A20" s="4" t="s">
         <v>93</v>
       </c>
@@ -1728,11 +1976,11 @@
       <c r="K20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:12" ht="65.25">
       <c r="A21" s="4" t="s">
         <v>98</v>
       </c>
@@ -1751,17 +1999,17 @@
       <c r="F21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21">
         <v>6</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:12" ht="150">
       <c r="A22" s="4" t="s">
         <v>102</v>
       </c>
@@ -1780,11 +2028,11 @@
       <c r="K22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
         <v>107</v>
       </c>
@@ -1803,11 +2051,11 @@
       <c r="K23" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L23" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="118.5">
       <c r="A24" s="4" t="s">
         <v>111</v>
       </c>
@@ -1829,11 +2077,11 @@
       <c r="K24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:12" ht="68.25">
       <c r="A25" s="4" t="s">
         <v>114</v>
       </c>
@@ -1855,11 +2103,11 @@
       <c r="K25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="103.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:12" ht="168.75">
       <c r="A26" s="4" t="s">
         <v>117</v>
       </c>
@@ -1878,11 +2126,11 @@
       <c r="K26" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L26" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="4" t="s">
         <v>121</v>
       </c>
@@ -1901,11 +2149,11 @@
       <c r="K27" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L27" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="131.25">
       <c r="A28" s="4" t="s">
         <v>125</v>
       </c>
@@ -1924,11 +2172,11 @@
       <c r="K28" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L28" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="103.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="187.5">
       <c r="A29" s="4" t="s">
         <v>129</v>
       </c>
@@ -1947,11 +2195,11 @@
       <c r="K29" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L29" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="37.5">
       <c r="A30" s="4" t="s">
         <v>133</v>
       </c>
@@ -1970,11 +2218,11 @@
       <c r="K30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L30" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="91.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="187.5">
       <c r="A31" s="4" t="s">
         <v>137</v>
       </c>
@@ -1993,11 +2241,11 @@
       <c r="K31" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L31" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="316.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="315">
       <c r="A32" s="4" t="s">
         <v>141</v>
       </c>
@@ -2014,13 +2262,13 @@
         <v>145</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="76.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="105">
       <c r="A33" s="4" t="s">
         <v>146</v>
       </c>
@@ -2036,11 +2284,14 @@
       <c r="E33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L33" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="91.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K33" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="90">
       <c r="A34" s="4" t="s">
         <v>150</v>
       </c>
@@ -2056,11 +2307,14 @@
       <c r="E34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L34" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="106.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K34" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="120">
       <c r="A35" s="4" t="s">
         <v>154</v>
       </c>
@@ -2076,15 +2330,18 @@
       <c r="E35" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L35" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="76.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K35" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="75">
       <c r="A36" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>159</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2096,15 +2353,18 @@
       <c r="E36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L36" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="76.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K36" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="75">
       <c r="A37" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>163</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2116,15 +2376,18 @@
       <c r="E37" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L37" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="106.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K37" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="105">
       <c r="A38" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>167</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2136,20 +2399,15 @@
       <c r="E38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="0" t="s">
+      <c r="K38" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="0" t="n">
+      <c r="L38">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/LarpCreater/LARP Framework/Assets/Excel/Skill.xlsx
+++ b/LarpCreater/LARP Framework/Assets/Excel/Skill.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LARP system\LarpCreater\LARP Framework\Assets\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B094E6-BA4A-4AD6-B0D2-4A6078CFF0FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,18 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="170">
-  <si>
-    <t>招式名字</t>
-  </si>
-  <si>
-    <t>招式圖片</t>
-  </si>
-  <si>
-    <t>功能說明</t>
-  </si>
-  <si>
-    <t>詳細功能說明</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="175">
+  <si>
+    <t xml:space="preserve">招式名字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">招式圖片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">功能說明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">詳細功能說明</t>
   </si>
   <si>
     <r>
@@ -47,7 +42,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>可用職業</t>
+      <t xml:space="preserve">可用職業</t>
     </r>
     <r>
       <rPr>
@@ -57,11 +52,11 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>(W/A/M/V)</t>
-    </r>
-  </si>
-  <si>
-    <t>前置技</t>
+      <t xml:space="preserve">(W/A/M/V)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">前置技</t>
   </si>
   <si>
     <r>
@@ -72,7 +67,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>增益</t>
+      <t xml:space="preserve">增益</t>
     </r>
     <r>
       <rPr>
@@ -94,7 +89,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>增益</t>
+      <t xml:space="preserve">增益</t>
     </r>
     <r>
       <rPr>
@@ -116,7 +111,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>增益</t>
+      <t xml:space="preserve">增益</t>
     </r>
     <r>
       <rPr>
@@ -138,7 +133,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>增益</t>
+      <t xml:space="preserve">增益</t>
     </r>
     <r>
       <rPr>
@@ -160,7 +155,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>可用等級</t>
+      <t xml:space="preserve">可用等級</t>
     </r>
     <r>
       <rPr>
@@ -174,101 +169,122 @@
     </r>
   </si>
   <si>
-    <t>系列最大點數</t>
-  </si>
-  <si>
-    <t>治療術</t>
-  </si>
-  <si>
-    <t>治療術.png</t>
-  </si>
-  <si>
-    <t>治療友方單位</t>
-  </si>
-  <si>
-    <t>每5秒治療1點生命，最多9次，無法治療自己。
+    <t xml:space="preserve">系列最大點數</t>
+  </si>
+  <si>
+    <t xml:space="preserve">治療</t>
+  </si>
+  <si>
+    <t xml:space="preserve">治療術.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">治療友方單位</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">治療目標回復2點生命，最多3次，無法治療自己。
 施放方式:
-於受傷目標1步距離內，傷者須呈現蹲姿或傷姿，以合理演出道具治療目標。
-引導每5秒回復1點生命，過程中雙方之一移動或承受傷害就會中斷治療。
-使用完9次後，需充能沙漏1次與消耗1枚金幣才能重制次數。</t>
-  </si>
-  <si>
-    <t>W/A/M</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>斬殺</t>
-  </si>
-  <si>
-    <t>尾刀回血.png</t>
-  </si>
-  <si>
-    <t>尾刀可回1點生命</t>
-  </si>
-  <si>
-    <t>處決目標可回復1點生命。
+治療師可攜帶3條繃帶，將繃帶綁在受傷目標上可回復2點生命。
+目標死後將繃帶卸除於復活點，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">在復活點有大於3條繃帶時，治療師可消耗1枚金幣補充3條繃帶。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">W/A/M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斬殺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尾刀回血.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">處決目標回血</t>
+  </si>
+  <si>
+    <t xml:space="preserve">處決目標可回復1點生命。
 施放方式:
 對已經被擊敗的目標演出處決，可回復1點生命。</t>
   </si>
   <si>
-    <t>背襲</t>
-  </si>
-  <si>
-    <t>背襲回血.png</t>
-  </si>
-  <si>
-    <t>擊中背部回血</t>
-  </si>
-  <si>
-    <t>擊中背部回1HP，每個目標只能1次。
+    <t xml:space="preserve">背襲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">背襲回血.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">擊中背部回血</t>
+  </si>
+  <si>
+    <t xml:space="preserve">擊中背部回1HP，每個目標只能1次。
 施放方式:
 被動
 耗費1金幣才重制目標次數。</t>
   </si>
   <si>
-    <t>救贖</t>
-  </si>
-  <si>
-    <t>救贖.png</t>
-  </si>
-  <si>
-    <t>復活友方玩家</t>
-  </si>
-  <si>
-    <t>犧牲1點生命上限，以1點生命復活一名友方
+    <t xml:space="preserve">W/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">救援</t>
+  </si>
+  <si>
+    <t xml:space="preserve">救贖.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">復活友方玩家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">犧牲1點生命上限，以1點生命復活一名友方
 施放方式:
 於已死亡的友方目標1步距離內，將1點生命上限轉給目標，使其已1點生命復活。
 自己失去的生命上限無法以治療補回，但重新復活可重置。</t>
   </si>
   <si>
-    <t>優勢武裝</t>
-  </si>
-  <si>
-    <t>優勢武裝.png</t>
-  </si>
-  <si>
-    <t>解銷大型武裝</t>
-  </si>
-  <si>
-    <t>解鎖140cm以上大型武器
+    <t xml:space="preserve">優勢武裝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">優勢武裝.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解銷大型武裝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解鎖140cm以上大型武器
 解鎖80cm以上大型盾牌</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>耐力</t>
-  </si>
-  <si>
-    <t>耐力.png</t>
-  </si>
-  <si>
-    <t>提高生命上限</t>
-  </si>
-  <si>
-    <t>生命上限提高1點。</t>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">耐力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">耐力.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提高生命上限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生命上限提高1點。</t>
   </si>
   <si>
     <r>
@@ -279,7 +295,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>+</t>
+      <t xml:space="preserve">+</t>
     </r>
     <r>
       <rPr>
@@ -289,17 +305,17 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>投持武器</t>
-  </si>
-  <si>
-    <t>投持武器.png</t>
-  </si>
-  <si>
-    <t>解鎖投持武器</t>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">投持武器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">投持武器.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解鎖投持武器</t>
   </si>
   <si>
     <r>
@@ -310,7 +326,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>可攜3支投持武器/或</t>
+      <t xml:space="preserve">可攜3支投持武器/或</t>
     </r>
     <r>
       <rPr>
@@ -320,7 +336,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>NERF MAGA彈</t>
+      <t xml:space="preserve">NERF MAGA彈</t>
     </r>
     <r>
       <rPr>
@@ -330,7 +346,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>/或</t>
+      <t xml:space="preserve">/或</t>
     </r>
     <r>
       <rPr>
@@ -340,7 +356,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>NERF</t>
+      <t xml:space="preserve">NERF</t>
     </r>
     <r>
       <rPr>
@@ -350,25 +366,22 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>弩矢
+      <t xml:space="preserve">弩矢
 施放方式:
 將中程武器彈射出，造成1點遠程傷害。</t>
     </r>
   </si>
   <si>
-    <t>W/A</t>
-  </si>
-  <si>
-    <t>蓄力打擊</t>
-  </si>
-  <si>
-    <t>蓄力打擊.png</t>
-  </si>
-  <si>
-    <t>強力近戰技能</t>
-  </si>
-  <si>
-    <t>蓄力2秒後造成3點進戰技能傷害。
+    <t xml:space="preserve">蓄力打擊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蓄力打擊.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強力近戰技能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蓄力2秒後造成3點進戰技能傷害。
 施放方式:
 先喊放招提示吸引目標注意(例如:看招! 接招! 吃我這招...等)
 將武器舉起蓄力並喊出招式名稱(可自己取名)，至少2秒2音節。
@@ -377,31 +390,31 @@
 冷卻:1次沙漏</t>
   </si>
   <si>
-    <t>大型箭袋</t>
-  </si>
-  <si>
-    <t>大型箭袋.png</t>
-  </si>
-  <si>
-    <t>提高箭矢上限</t>
-  </si>
-  <si>
-    <t>取消箭矢攜帶數量限制</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>無限</t>
-  </si>
-  <si>
-    <t>火箭</t>
-  </si>
-  <si>
-    <t>火焰箭.png</t>
-  </si>
-  <si>
-    <t>強力遠程技能</t>
+    <t xml:space="preserve">大型箭袋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大型箭袋.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提高箭矢上限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">取消箭矢攜帶數量限制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火箭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火焰箭.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強力遠程技能</t>
   </si>
   <si>
     <t xml:space="preserve">可攜帶1支可造成3法傷的火焰箭矢
@@ -413,31 +426,31 @@
 </t>
   </si>
   <si>
-    <t>多重箭</t>
-  </si>
-  <si>
-    <t>多重箭.png</t>
-  </si>
-  <si>
-    <t>解鎖多重箭</t>
-  </si>
-  <si>
-    <t>可一次射出多隻箭矢
+    <t xml:space="preserve">多重箭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多重箭.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解鎖多重箭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可一次射出多隻箭矢
 施放方式:
 架好2~3支箭矢一次射出(建議橫拿弓)
 額外箭矢會增加重量，須將弓拉的更滿或調高角度，建議先練習熟悉。</t>
   </si>
   <si>
-    <t>恐懼術</t>
-  </si>
-  <si>
-    <t>恐懼術.png</t>
-  </si>
-  <si>
-    <t>使目標逃跑</t>
-  </si>
-  <si>
-    <t>使1個目標逃回復活點。
+    <t xml:space="preserve">恐懼術</t>
+  </si>
+  <si>
+    <t xml:space="preserve">恐懼術.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使目標逃跑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使1個目標逃回復活點。
 施放方式:
 先喊放招提示吸引目標注意(例如:看招! 接招! 嘗嘗這招...等)
 於三步範圍內，讀出恐懼術，手長朝目標的臉張開，並口頭提示目標逃跑回家。
@@ -445,16 +458,16 @@
 冷卻:充能沙漏1次</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>冰凍</t>
-  </si>
-  <si>
-    <t>冰凍術.png</t>
-  </si>
-  <si>
-    <t>使目標定身</t>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冰凍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冰凍術.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使目標定身</t>
   </si>
   <si>
     <r>
@@ -477,7 +490,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>施放方式:
+      <t xml:space="preserve">施放方式:
 先喊放招提示吸引目標注意(例如:看招! 接招! 吃我這招...等)
 於三步範圍內，讀出帶有冰系關鍵字的技能名稱。
 手指目標的腳喊"定身"，
@@ -486,81 +499,81 @@
     </r>
   </si>
   <si>
-    <t>法陣部署</t>
-  </si>
-  <si>
-    <t>法陣部署.png</t>
-  </si>
-  <si>
-    <t>學會佈屬法陣</t>
-  </si>
-  <si>
-    <t>可使用法帶擺放法陣
-排成直線作為壁壘，人與敵方遠程無法通過。
+    <t xml:space="preserve">法陣部署</t>
+  </si>
+  <si>
+    <t xml:space="preserve">法陣部署.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">學會佈屬法陣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可使用法帶擺放法陣
+排成直線作為壁壘，敵方遠程無法通過。
 排成圓形可加速施法，治療與法球只需1秒
 施放方式:
 準備3公尺的彩帶(建議加裝重物)
-展開成直線時，形成人無法通過的壁障，投射物仍可通過。
+展開成直線時，可抵擋敵方投射物，人仍可通過。
 排成圓形時，站在其圓圈內，治療、法球、與其他讀條技能，施放只需1秒。
 法陣可回收重新布局。</t>
   </si>
   <si>
-    <t>戰鬥法師</t>
-  </si>
-  <si>
-    <t>戰鬥法師.png</t>
-  </si>
-  <si>
-    <t>強化近戰能力</t>
-  </si>
-  <si>
-    <t>解鎖硬甲、中型武器、中型盾牌，
+    <t xml:space="preserve">戰鬥法師</t>
+  </si>
+  <si>
+    <t xml:space="preserve">戰鬥法師.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強化近戰能力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解鎖硬甲、中型武器、中型盾牌，
 但法球減少為3顆。</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>魔力充沛</t>
-  </si>
-  <si>
-    <t>魔力充沛.png</t>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔力充沛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔力充沛.png</t>
   </si>
   <si>
     <t xml:space="preserve">
 提高法力上限</t>
   </si>
   <si>
-    <t>法球攜帶量加倍</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>祝福</t>
-  </si>
-  <si>
-    <t>祝福.png</t>
-  </si>
-  <si>
-    <t>強化友方生命</t>
-  </si>
-  <si>
-    <t>攜帶用1條祝福法帶，為友方施加+1HP效果。
+    <t xml:space="preserve">法球攜帶量加倍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">祝福</t>
+  </si>
+  <si>
+    <t xml:space="preserve">祝福.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強化友方生命</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攜帶用1條祝福法帶，為友方施加+1HP效果。
 施放方式:
 將祝福法帶綁在目標身上，可回收或更換目標。</t>
   </si>
   <si>
-    <t>大師耐力</t>
-  </si>
-  <si>
-    <t>大師耐力.png</t>
-  </si>
-  <si>
-    <t>生命上限提高3點。</t>
-  </si>
-  <si>
-    <t>強化耐力</t>
+    <t xml:space="preserve">大師耐力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大師耐力.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生命上限提高3點。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強化耐力</t>
   </si>
   <si>
     <r>
@@ -571,7 +584,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>+</t>
+      <t xml:space="preserve">+</t>
     </r>
     <r>
       <rPr>
@@ -581,14 +594,14 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>強化耐力.png</t>
-  </si>
-  <si>
-    <t>生命上限提高2點。</t>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">強化耐力.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生命上限提高2點。</t>
   </si>
   <si>
     <r>
@@ -599,7 +612,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>+</t>
+      <t xml:space="preserve">+</t>
     </r>
     <r>
       <rPr>
@@ -609,59 +622,59 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>投持大師</t>
-  </si>
-  <si>
-    <t>投持大師.png</t>
-  </si>
-  <si>
-    <t>提高投持數量</t>
-  </si>
-  <si>
-    <t>可攜6支投持武器/或NERF MAGA彈/或NERF弩矢
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">投持大師</t>
+  </si>
+  <si>
+    <t xml:space="preserve">投持大師.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提高投持數量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可攜6支投持武器/或NERF MAGA彈/或NERF弩矢
 施放方式:
 將中程武器彈射出，造成1點遠程傷害。</t>
   </si>
   <si>
-    <t>振奮號召</t>
-  </si>
-  <si>
-    <t>振奮號召.png</t>
-  </si>
-  <si>
-    <t>群體復活</t>
-  </si>
-  <si>
-    <t>喚醒所以死亡的友方以1點生命復活，最多6人
+    <t xml:space="preserve">振奮號召</t>
+  </si>
+  <si>
+    <t xml:space="preserve">振奮號召.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">群體復活</t>
+  </si>
+  <si>
+    <t xml:space="preserve">喚醒所以死亡的友方以1點生命復活，最多6人
 施放方式:
 在墓地區低舉武器號招敗亡玩家武器相觸，累積最多6人呼出代表重生的口號。
 將復活有觸擊的死者，但剛復活的目標只有1點生命，且可以接受治療。
 只能使用一次。</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>泰坦之握</t>
-  </si>
-  <si>
-    <t>泰坦之握.png</t>
-  </si>
-  <si>
-    <t>雙持雙手武器</t>
-  </si>
-  <si>
-    <t>可單手持雙手武器，且蓄力打擊移除冷卻</t>
-  </si>
-  <si>
-    <t>火箭大師</t>
-  </si>
-  <si>
-    <t>火箭大師.png</t>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泰坦之握</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泰坦之握.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雙持雙手武器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可單手持雙手武器，且蓄力打擊移除冷卻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火箭大師</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火箭大師.png</t>
   </si>
   <si>
     <r>
@@ -683,7 +696,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>施放方式:
+      <t xml:space="preserve">施放方式:
 以代表火焰的紅色布套(建議加裝鈴鐺)安裝於箭矢上。
 射擊時需喊出與火有關的射擊技能名稱(例如:火焰箭!)
 擊中目標造成3點技能傷害，無視格檔。
@@ -691,10 +704,10 @@
     </r>
   </si>
   <si>
-    <t>祝福大師</t>
-  </si>
-  <si>
-    <t>祝福大師.png</t>
+    <t xml:space="preserve">祝福大師</t>
+  </si>
+  <si>
+    <t xml:space="preserve">祝福大師.png</t>
   </si>
   <si>
     <r>
@@ -722,16 +735,16 @@
     </r>
   </si>
   <si>
-    <t>群體治療</t>
-  </si>
-  <si>
-    <t>群體治療.png</t>
-  </si>
-  <si>
-    <t>治療複數單位</t>
-  </si>
-  <si>
-    <t>群體治療自己以外的友方2點生命，最多六人。
+    <t xml:space="preserve">群體治療</t>
+  </si>
+  <si>
+    <t xml:space="preserve">群體治療.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">治療複數單位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">群體治療自己以外的友方2點生命，最多六人。
 施放方式:
 舉起代表治療的道具或武器，呼喚友方來觸碰。
 如果集結人數超過6人，喊滿!
@@ -741,44 +754,44 @@
 冷卻:充能沙漏1次與消耗1枚金幣。</t>
   </si>
   <si>
-    <t>老練戰將</t>
-  </si>
-  <si>
-    <t>老練戰將.png</t>
-  </si>
-  <si>
-    <t>額外技能點數</t>
-  </si>
-  <si>
-    <t>獲得額外2點天賦技能點數</t>
-  </si>
-  <si>
-    <t>聖療術</t>
-  </si>
-  <si>
-    <t>聖療術.png</t>
-  </si>
-  <si>
-    <t>強力治療技能</t>
-  </si>
-  <si>
-    <t>回滿1個目標生命
+    <t xml:space="preserve">老練戰將</t>
+  </si>
+  <si>
+    <t xml:space="preserve">老練戰將.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">額外技能點數</t>
+  </si>
+  <si>
+    <t xml:space="preserve">獲得額外2點天賦技能點數</t>
+  </si>
+  <si>
+    <t xml:space="preserve">聖療術</t>
+  </si>
+  <si>
+    <t xml:space="preserve">聖療術.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強力治療技能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回滿1個目標生命
 施放方式:
 於一步內對有方演出治療動作，喊出強效治療相關名稱，將立即回滿生命。
 順發，可對自己使用。
 冷卻:充能沙漏1次與消耗1枚金幣。</t>
   </si>
   <si>
-    <t>震地擊</t>
-  </si>
-  <si>
-    <t>震地擊.png</t>
-  </si>
-  <si>
-    <t>範圍震暈傷害</t>
-  </si>
-  <si>
-    <t>範圍1點傷害並昏迷5秒
+    <t xml:space="preserve">震地擊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">震地擊.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">範圍震暈傷害</t>
+  </si>
+  <si>
+    <t xml:space="preserve">範圍1點傷害並昏迷5秒
 施放方式:
 先喊放招提示吸引目標注意(例如:看招! 接招! 吃我這招...等)
 喊出震地擊或類似名稱，演出重擊地面的動作喊"碰"。
@@ -788,30 +801,30 @@
 冷卻:充能沙漏1次與消耗1枚金幣。</t>
   </si>
   <si>
-    <t>魔力護盾</t>
-  </si>
-  <si>
-    <t>魔力護盾.png</t>
-  </si>
-  <si>
-    <t>降低承受傷害</t>
+    <t xml:space="preserve">魔力護盾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔力護盾.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">降低承受傷害</t>
   </si>
   <si>
     <t xml:space="preserve">
 承受任何類型攻擊傷害降為1</t>
   </si>
   <si>
-    <t>擊退波</t>
-  </si>
-  <si>
-    <t>魔爆術.png</t>
+    <t xml:space="preserve">擊退波</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔爆術.png</t>
   </si>
   <si>
     <t xml:space="preserve">
 範圍擊退傷害</t>
   </si>
   <si>
-    <t>範圍2點傷害並擊退5步
+    <t xml:space="preserve">範圍2點傷害並擊退5步
 施放方式:
 先喊放招提示吸引目標注意(例如:看招! 接招! 吃我這招...等)
 雙手環於身前，喊出擊退或類似關鍵字技能名稱，將肢體大字展開喊"碰"。
@@ -820,13 +833,13 @@
 冷卻:充能沙漏1次與消耗1枚金幣。</t>
   </si>
   <si>
-    <t>貿易</t>
-  </si>
-  <si>
-    <t>貿易.png</t>
-  </si>
-  <si>
-    <t>販售強化道具</t>
+    <t xml:space="preserve">貿易</t>
+  </si>
+  <si>
+    <t xml:space="preserve">貿易.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">販售強化道具</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -849,25 +862,28 @@
 </t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>委託任務</t>
-  </si>
-  <si>
-    <t>委託任務.png</t>
-  </si>
-  <si>
-    <t>放置任務道具</t>
-  </si>
-  <si>
-    <t>放置任務道具，帶回任務道具給予報酬
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">委託任務</t>
+  </si>
+  <si>
+    <t xml:space="preserve">委託任務.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">放置任務道具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">放置任務道具，帶回任務道具給予報酬
 將任務道具事先擺放於場地上，玩家需先向你接任務後去收集指定道具。
 蒐集對的東西後給予報酬或有利條件。
 蒐集錯的東西將可拒收或告訴他撿的東西有毒，每撿錯一個-1生命。</t>
   </si>
   <si>
-    <t>懸賞任務</t>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">懸賞任務</t>
   </si>
   <si>
     <r>
@@ -878,7 +894,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>懸賞任務</t>
+      <t xml:space="preserve">懸賞任務</t>
     </r>
     <r>
       <rPr>
@@ -888,11 +904,11 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>.png</t>
-    </r>
-  </si>
-  <si>
-    <t>標記懸賞目標</t>
+      <t xml:space="preserve">.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">標記懸賞目標</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -902,7 +918,7 @@
 行情價6金</t>
   </si>
   <si>
-    <t>拉普牌</t>
+    <t xml:space="preserve">拉普牌</t>
   </si>
   <si>
     <r>
@@ -913,7 +929,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>拉普牌</t>
+      <t xml:space="preserve">拉普牌</t>
     </r>
     <r>
       <rPr>
@@ -923,11 +939,11 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>.png</t>
-    </r>
-  </si>
-  <si>
-    <t>來場拉普牌</t>
+      <t xml:space="preserve">.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">來場拉普牌</t>
   </si>
   <si>
     <t xml:space="preserve">賭注金幣挑戰拉普牌
@@ -938,7 +954,7 @@
 </t>
   </si>
   <si>
-    <t>療育</t>
+    <t xml:space="preserve">療育</t>
   </si>
   <si>
     <r>
@@ -949,7 +965,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>療育</t>
+      <t xml:space="preserve">療育</t>
     </r>
     <r>
       <rPr>
@@ -959,20 +975,20 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>.png</t>
-    </r>
-  </si>
-  <si>
-    <t>給予中立治療</t>
-  </si>
-  <si>
-    <t>給予中立治療每5秒回復1點生命。
+      <t xml:space="preserve">.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">給予中立治療</t>
+  </si>
+  <si>
+    <t xml:space="preserve">給予中立治療每5秒回復1點生命。
 對付費或完成任務的玩家，
 以物理、魔法、音樂、飲食等合理演出，給予治療
 每5秒回復1點生命，可以視心情減弱效果。</t>
   </si>
   <si>
-    <t>拾荒者</t>
+    <t xml:space="preserve">拾荒者</t>
   </si>
   <si>
     <r>
@@ -983,7 +999,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>拾荒者</t>
+      <t xml:space="preserve">拾荒者</t>
     </r>
     <r>
       <rPr>
@@ -993,20 +1009,20 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>.png</t>
-    </r>
-  </si>
-  <si>
-    <t>收集投射道具</t>
-  </si>
-  <si>
-    <t>收集投射道具，供玩家取回或購回
+      <t xml:space="preserve">.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">收集投射道具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收集投射道具，供玩家取回或購回
 蒐集場上掉落的箭矢、投持武器、法球、或其他掉落物。
 可供玩家領回或購回。
 投射道具夠回行情5個1金</t>
   </si>
   <si>
-    <t>自我恢復</t>
+    <t xml:space="preserve">自我恢復</t>
   </si>
   <si>
     <r>
@@ -1017,7 +1033,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>自我恢復</t>
+      <t xml:space="preserve">自我恢復</t>
     </r>
     <r>
       <rPr>
@@ -1027,32 +1043,69 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>.png</t>
-    </r>
-  </si>
-  <si>
-    <t>對自己治療</t>
-  </si>
-  <si>
-    <t>每10秒治療自己1點生命，無法治療他人。
-最多9次。
+      <t xml:space="preserve">.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">對自己治療</t>
+  </si>
+  <si>
+    <t xml:space="preserve">消耗補給治療自己4點生命，無法治療他人。
 施放方式:
-以合理道具為自己治療，引導每10秒回復1點生命。
-需明顯演出治療動作，過程中移動或承受傷害就會中斷治療。
-使用完9次後，需耗費1金幣才能重制次數。</t>
+於復活點或村莊，使用治療藥水、飲食、或其他合理道具。
+每消耗1枚金幣可治療1次。
+(第一次使用就需消耗)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">潛行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">潛行.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">挑選進場位置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">潛行於場邊繞行，於有利時機進場。
+施放方式:
+使用樹葉隱匿身體後進入潛行，將視為不可見目標，無法被攻擊。
+持樹葉時可於場邊繞行，拋棄樹葉後即進場，一但進場無法再回到潛行。
+陣亡後可以靈魂狀態撿回樹葉、或由其他場務人員拾回，下條命可再度使用。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1106,7 +1159,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -1114,387 +1167,126 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+  <cellXfs count="11">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="60.25" customWidth="1"/>
-    <col min="4" max="4" width="54.375" customWidth="1"/>
-    <col min="5" max="5" width="59.375" customWidth="1"/>
-    <col min="6" max="1025" width="8.625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="59.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1516,7 +1308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="150">
+    <row r="2" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1535,11 +1327,11 @@
       <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="75">
+      <c r="L2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -1558,11 +1350,11 @@
       <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="93.75">
+      <c r="L3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1575,115 +1367,115 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="112.5">
-      <c r="A5" s="4" t="s">
+      <c r="K5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="37.5">
-      <c r="A6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7">
+      <c r="J8" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="75">
-      <c r="A8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
       <c r="K8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="168.75">
+    <row r="9" customFormat="false" ht="91.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1697,16 +1489,16 @@
         <v>48</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
@@ -1722,17 +1514,17 @@
       <c r="E10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="0" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="150">
+      <c r="L10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="91.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
@@ -1751,11 +1543,11 @@
       <c r="K11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="112.5">
+    <row r="12" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -1774,11 +1566,11 @@
       <c r="K12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="150">
+      <c r="L12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="91.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>63</v>
       </c>
@@ -1797,11 +1589,11 @@
       <c r="K13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="153">
+      <c r="L13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="103.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
@@ -1820,11 +1612,11 @@
       <c r="K14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="187.5">
+      <c r="L14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="114.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>72</v>
       </c>
@@ -1843,11 +1635,11 @@
       <c r="K15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="37.5">
+      <c r="L15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>76</v>
       </c>
@@ -1863,17 +1655,17 @@
       <c r="E16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="37.5">
+      <c r="L16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>81</v>
       </c>
@@ -1895,11 +1687,11 @@
       <c r="K17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="75">
+      <c r="L17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>86</v>
       </c>
@@ -1913,16 +1705,16 @@
         <v>89</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>90</v>
       </c>
@@ -1930,13 +1722,13 @@
         <v>91</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>92</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>93</v>
@@ -1947,11 +1739,11 @@
       <c r="K19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>93</v>
       </c>
@@ -1959,7 +1751,7 @@
         <v>95</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>96</v>
@@ -1968,7 +1760,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>97</v>
@@ -1976,11 +1768,11 @@
       <c r="K20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="65.25">
+    <row r="21" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>98</v>
       </c>
@@ -1994,22 +1786,22 @@
         <v>101</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21">
+        <v>41</v>
+      </c>
+      <c r="J21" s="0" t="n">
         <v>6</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="150">
+    <row r="22" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>102</v>
       </c>
@@ -2028,11 +1820,11 @@
       <c r="K22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="L22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>107</v>
       </c>
@@ -2046,16 +1838,16 @@
         <v>110</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="118.5">
+      <c r="L23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>111</v>
       </c>
@@ -2077,11 +1869,11 @@
       <c r="K24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="68.25">
+    <row r="25" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>114</v>
       </c>
@@ -2103,11 +1895,11 @@
       <c r="K25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="168.75">
+    <row r="26" customFormat="false" ht="103.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>117</v>
       </c>
@@ -2126,11 +1918,11 @@
       <c r="K26" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="L26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>121</v>
       </c>
@@ -2149,11 +1941,11 @@
       <c r="K27" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="131.25">
+      <c r="L27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>125</v>
       </c>
@@ -2172,11 +1964,11 @@
       <c r="K28" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="187.5">
+      <c r="L28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="103.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>129</v>
       </c>
@@ -2195,11 +1987,11 @@
       <c r="K29" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="37.5">
+      <c r="L29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>133</v>
       </c>
@@ -2218,11 +2010,11 @@
       <c r="K30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="187.5">
+      <c r="L30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="114.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>137</v>
       </c>
@@ -2241,11 +2033,11 @@
       <c r="K31" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="315">
+      <c r="L31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="316.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>141</v>
       </c>
@@ -2262,13 +2054,13 @@
         <v>145</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="105">
+        <v>17</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="76.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>146</v>
       </c>
@@ -2282,132 +2074,146 @@
         <v>149</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="90">
+        <v>150</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="91.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="120">
+      <c r="L34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="106.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="75">
+        <v>150</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="76.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" t="s">
         <v>159</v>
       </c>
+      <c r="B36" s="0" t="s">
+        <v>160</v>
+      </c>
       <c r="C36" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="75">
+        <v>150</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="76.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B37" t="s">
         <v>163</v>
       </c>
+      <c r="B37" s="0" t="s">
+        <v>164</v>
+      </c>
       <c r="C37" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="105">
+        <v>150</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="91.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B38" t="s">
         <v>167</v>
       </c>
+      <c r="B38" s="0" t="s">
+        <v>168</v>
+      </c>
       <c r="C38" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K38" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K38" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>